--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>一、相关引脚介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,14 @@
     <t>☆ 输入电压范围对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>△ 建议三种方式都留着位置，等板子做好后，调试下，看看哪种情况最省电。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△ 这三种方式，如果可以通过两个I/O口控制会更好。到时候可以动态切换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,12 +247,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,8 +394,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>532391</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171386</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -417,8 +432,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>618105</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171383</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -455,8 +470,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>94296</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171407</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -721,8 +736,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>27655</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>171411</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -823,6 +838,5750 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右箭头 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="23298150"/>
+          <a:ext cx="828675" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6667500" cy="1926168"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="22974299"/>
+          <a:ext cx="6667500" cy="1926168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>☆  三种方式动态切换可行性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>● </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>切换顺序：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Internal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> DC/DC  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>→  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Internal LDO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>→ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Low Voltage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>□  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>动态切换是否会影响系统运行？必须</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>吗？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>方式：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Soft Reset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>？</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WatchDog</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>□  电路上的设计：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>          ■</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>  需要多少个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>          </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>       ● 从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Internal LDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>切换到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Low Voltage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>模式，只需要将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>DEC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>连接到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>上。一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>                 ● </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>DC/DC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>模式切换到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Internal LDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>模式，需要将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>AVDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>连接到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>上。一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>综上，需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>口。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>           </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>□ 在从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DC/DC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模式切换到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Internal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> LDO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>模式时，需要断开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>DCC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>外部的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>LC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>滤波电路吗？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>□</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如何检测电压低于设定阀值了？从而可以切换模式？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138605</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>281480</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="右箭头 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12672191" y="23389787"/>
+          <a:ext cx="826048" cy="189186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>136903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>155953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15099385" y="23239064"/>
+          <a:ext cx="911817" cy="532431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DC/DC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Converter</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14498954" y="22040850"/>
+          <a:ext cx="8067675" cy="2255520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439900" y="23479125"/>
+          <a:ext cx="133350" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>668365</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>57312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>58119</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13912958" y="23501727"/>
+          <a:ext cx="501919" cy="807"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>125925</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171644</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>78009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="流程图: 联系 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14739535" y="23476705"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>57312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>60865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14548227" y="23501727"/>
+          <a:ext cx="551158" cy="3553"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>148895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>25071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15225462" y="22136606"/>
+          <a:ext cx="724902" cy="217070"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DCDCEN</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>148785</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>150395</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14812272" y="22799842"/>
+          <a:ext cx="1610" cy="583737"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>137361</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>139673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>140369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14800848" y="22809173"/>
+          <a:ext cx="579520" cy="696"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>456198</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>135355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>549934</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>140179</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15796840" y="23081619"/>
+          <a:ext cx="780254" cy="4824"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>64169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>241032</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16497300" y="23552819"/>
+          <a:ext cx="442962" cy="601"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>531738</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>132991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>535557</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接连接符 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16558898" y="23079255"/>
+          <a:ext cx="3819" cy="1292956"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>2006</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>109593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47725</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>155312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="流程图: 联系 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15352295" y="22779093"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>20053</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>20053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>486277</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>131150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接连接符 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15370342" y="22689553"/>
+          <a:ext cx="466224" cy="111097"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>235619</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>25071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>237624</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>35092</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接连接符 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15585908" y="22353676"/>
+          <a:ext cx="2005" cy="350916"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>241032</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>140369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>469632</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>159419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16940262" y="23286119"/>
+          <a:ext cx="914400" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LDO</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>469632</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>63700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>64169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接连接符 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17854662" y="23552350"/>
+          <a:ext cx="639078" cy="469"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="998030" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18493740" y="23420070"/>
+          <a:ext cx="998030" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>System Power</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15507024" y="24048720"/>
+          <a:ext cx="133350" cy="132134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>465063</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>598413</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="矩形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16458957" y="24048720"/>
+          <a:ext cx="133350" cy="132134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="矩形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18060292" y="24048720"/>
+          <a:ext cx="133350" cy="132134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="矩形 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19385361" y="24048720"/>
+          <a:ext cx="132539" cy="132134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="矩形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18719422" y="24048720"/>
+          <a:ext cx="132539" cy="132134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>55367</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>28602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>115019</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>89859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="流程图: 联系 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18159671" y="23330834"/>
+          <a:ext cx="59652" cy="61257"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>499612</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>28755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>566743</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>90304</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="流程图: 联系 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16526772" y="23665132"/>
+          <a:ext cx="67131" cy="61549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>78105</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85044</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直接连接符 101"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18182409" y="23373670"/>
+          <a:ext cx="6939" cy="654639"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>453915</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>89995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>211077</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>90596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直接连接符 110"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13670674" y="21780719"/>
+          <a:ext cx="440334" cy="601"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>525517</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438325" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="TextBox 111"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13742276" y="21487086"/>
+          <a:ext cx="438325" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438325" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="TextBox 112"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14372897" y="23503758"/>
+          <a:ext cx="438325" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>512380</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="421910" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="TextBox 113"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15095483" y="23937309"/>
+          <a:ext cx="421910" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DCC</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>13139</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="519951" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="TextBox 114"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15962587" y="23937309"/>
+          <a:ext cx="519951" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AVDD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>216776</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="487056" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="TextBox 115"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17532569" y="23937309"/>
+          <a:ext cx="487056" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DEC2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="487056" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="TextBox 116"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18261724" y="23937309"/>
+          <a:ext cx="487056" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DEC1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="394339" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="TextBox 117"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18984310" y="23937309"/>
+          <a:ext cx="394339" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VSS</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676603</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676607</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>59124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直接连接符 119"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13893362" y="21795828"/>
+          <a:ext cx="4" cy="1661951"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>374293</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>77519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6431</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>60520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="任意多边形 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15683197" y="24420987"/>
+          <a:ext cx="317128" cy="153235"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 315310"/>
+            <a:gd name="connsiteY0" fmla="*/ 153794 h 153794"/>
+            <a:gd name="connsiteX1" fmla="*/ 32845 w 315310"/>
+            <a:gd name="connsiteY1" fmla="*/ 15846 h 153794"/>
+            <a:gd name="connsiteX2" fmla="*/ 105103 w 315310"/>
+            <a:gd name="connsiteY2" fmla="*/ 147225 h 153794"/>
+            <a:gd name="connsiteX3" fmla="*/ 157655 w 315310"/>
+            <a:gd name="connsiteY3" fmla="*/ 28984 h 153794"/>
+            <a:gd name="connsiteX4" fmla="*/ 164224 w 315310"/>
+            <a:gd name="connsiteY4" fmla="*/ 9277 h 153794"/>
+            <a:gd name="connsiteX5" fmla="*/ 210207 w 315310"/>
+            <a:gd name="connsiteY5" fmla="*/ 153794 h 153794"/>
+            <a:gd name="connsiteX6" fmla="*/ 256190 w 315310"/>
+            <a:gd name="connsiteY6" fmla="*/ 9277 h 153794"/>
+            <a:gd name="connsiteX7" fmla="*/ 315310 w 315310"/>
+            <a:gd name="connsiteY7" fmla="*/ 147225 h 153794"/>
+            <a:gd name="connsiteX8" fmla="*/ 315310 w 315310"/>
+            <a:gd name="connsiteY8" fmla="*/ 147225 h 153794"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="315310" h="153794">
+              <a:moveTo>
+                <a:pt x="0" y="153794"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="7664" y="85367"/>
+                <a:pt x="15328" y="16941"/>
+                <a:pt x="32845" y="15846"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="50362" y="14751"/>
+                <a:pt x="84301" y="145035"/>
+                <a:pt x="105103" y="147225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="125905" y="149415"/>
+                <a:pt x="147802" y="51975"/>
+                <a:pt x="157655" y="28984"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="167508" y="5993"/>
+                <a:pt x="155465" y="-11525"/>
+                <a:pt x="164224" y="9277"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="172983" y="30079"/>
+                <a:pt x="194879" y="153794"/>
+                <a:pt x="210207" y="153794"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="225535" y="153794"/>
+                <a:pt x="238673" y="10372"/>
+                <a:pt x="256190" y="9277"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="273707" y="8182"/>
+                <a:pt x="315310" y="147225"/>
+                <a:pt x="315310" y="147225"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="315310" y="147225"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>269327</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>6570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>269328</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="直接连接符 134"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15535603" y="24259191"/>
+          <a:ext cx="1" cy="400706"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>256190</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>52551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>368841</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>52692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直接连接符 136"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15565094" y="24566253"/>
+          <a:ext cx="112651" cy="141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>36479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112651</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>36620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直接连接符 146"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15993894" y="24550181"/>
+          <a:ext cx="112651" cy="141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>93223</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>24319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>97277</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>77011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直接连接符 147"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16087117" y="24538021"/>
+          <a:ext cx="4054" cy="222926"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>679697</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>81065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203415</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>83949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直接连接符 149"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15977816" y="24894497"/>
+          <a:ext cx="208226" cy="2884"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>683750</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>145916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>203415</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>148526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直接连接符 152"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15981869" y="24959348"/>
+          <a:ext cx="204173" cy="2610"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>89170</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>93220</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>28373</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="直接连接符 153"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16083064" y="24846064"/>
+          <a:ext cx="4050" cy="206713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>12983</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>20265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>179164</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>20265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直接连接符 156"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15995610" y="25175951"/>
+          <a:ext cx="166181" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>56742</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>72954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>145913</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>72958</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直接连接符 157"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16050636" y="25097358"/>
+          <a:ext cx="89171" cy="4"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>526297</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>167899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>532755</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>64576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直接连接符 165"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16508924" y="24296823"/>
+          <a:ext cx="6458" cy="238931"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>351941</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>41976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>535985</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>122695</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="直接连接符 169"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16334568" y="24513154"/>
+          <a:ext cx="184044" cy="80719"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>113010</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>32288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>335797</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>35518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直接连接符 172"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16095637" y="24674593"/>
+          <a:ext cx="222787" cy="3230"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>293824</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>3228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>360955</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>64777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="流程图: 联系 175"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16276451" y="24645533"/>
+          <a:ext cx="67131" cy="61549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>529526</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>35517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>67804</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>38747</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="177" name="直接连接符 176"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16512153" y="24677822"/>
+          <a:ext cx="222787" cy="3230"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>513382</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>9686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>580513</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>71235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="流程图: 联系 177"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16496009" y="24651991"/>
+          <a:ext cx="67131" cy="61549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>61347</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>25831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>64577</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>96865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="直接连接符 179"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16728483" y="24668136"/>
+          <a:ext cx="3230" cy="242161"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>648992</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>100093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>172709</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>102977</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直接连接符 182"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16631619" y="24913525"/>
+          <a:ext cx="208226" cy="2884"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>552125</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>64577</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438325" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="TextBox 183"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16534752" y="24878009"/>
+          <a:ext cx="438325" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>355170</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>32288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>356316</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>49460</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直接连接符 184"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="17706814" y="24674593"/>
+          <a:ext cx="1146" cy="188299"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>258282</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>53513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>466508</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>56397</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直接连接符 185"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17609926" y="24866945"/>
+          <a:ext cx="208226" cy="2884"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>259106</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>115135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>463279</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>117745</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直接连接符 186"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17610750" y="24928567"/>
+          <a:ext cx="204173" cy="2610"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>352263</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>134576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>356313</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直接连接符 187"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17703907" y="24948008"/>
+          <a:ext cx="4050" cy="208499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276076</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>163840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>442257</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>163840</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直接连接符 188"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17627720" y="25148399"/>
+          <a:ext cx="166181" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>319835</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>45402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>409006</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>45406</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直接连接符 189"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17671479" y="25201088"/>
+          <a:ext cx="89171" cy="4"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71033</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>167898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>77491</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>64575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="直接连接符 190"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18119895" y="24170898"/>
+          <a:ext cx="6458" cy="237145"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>581186</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>41975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>80721</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>122694</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直接连接符 191"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17932830" y="24513153"/>
+          <a:ext cx="184044" cy="80719"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>74262</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>35516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>297049</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>38746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="直接连接符 192"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18110415" y="24677821"/>
+          <a:ext cx="222787" cy="3230"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>290592</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>25830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>293822</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>96864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直接连接符 193"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18326745" y="24668135"/>
+          <a:ext cx="3230" cy="242161"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>96861</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>25848</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438325" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="TextBox 194"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18133014" y="25181534"/>
+          <a:ext cx="438325" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12915</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>167898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>80046</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="流程图: 联系 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18049068" y="24639076"/>
+          <a:ext cx="67131" cy="61549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>177585</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>93636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>385811</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="直接连接符 196"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18213738" y="24907068"/>
+          <a:ext cx="208226" cy="2884"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>339045</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>29070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561832</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>32300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直接连接符 197"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17690689" y="24671375"/>
+          <a:ext cx="222787" cy="3230"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>519859</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>586990</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>61559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="流程图: 联系 198"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17871503" y="24642315"/>
+          <a:ext cx="67131" cy="61549"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>597330</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>38746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="451534" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="TextBox 200"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15895449" y="25194432"/>
+          <a:ext cx="451534" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GND</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142069</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>32291</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="451534" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="TextBox 201"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17493713" y="25187977"/>
+          <a:ext cx="451534" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GND</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33031</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>35517</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>25831</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="直接连接符 202"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="91" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19438200" y="24307671"/>
+          <a:ext cx="2486" cy="360465"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>640920</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>29264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>122593</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>29264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="直接连接符 203"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19361581" y="24671569"/>
+          <a:ext cx="166181" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>545660</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>110814</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="451534" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="TextBox 204"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19266321" y="24753119"/>
+          <a:ext cx="451534" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GND</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>674822</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>83949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>79485</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>83953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直接连接符 210"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19395483" y="24726254"/>
+          <a:ext cx="89171" cy="4"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>64576</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>171118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>67796</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>6458</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="直接连接符 211"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18785237" y="24300042"/>
+          <a:ext cx="3220" cy="177594"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>655416</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>21215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>179134</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>24099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="直接连接符 212"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18691569" y="24492393"/>
+          <a:ext cx="208226" cy="2884"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>656240</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>82837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>175905</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>85447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="直接连接符 213"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18692393" y="24554015"/>
+          <a:ext cx="204173" cy="2610"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>64889</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>102278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>68939</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>139650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="215" name="直接连接符 214"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18785550" y="24573456"/>
+          <a:ext cx="4050" cy="208499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>673210</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>131542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>154883</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>131542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="直接连接符 215"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18709363" y="24773847"/>
+          <a:ext cx="166181" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>539203</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>171120</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="451534" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="TextBox 216"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18575356" y="24813425"/>
+          <a:ext cx="451534" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>GND</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22602</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>12916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>111773</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>12920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="218" name="直接连接符 217"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18743263" y="24826348"/>
+          <a:ext cx="89171" cy="4"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>184053</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>161440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>388226</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>164050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="直接连接符 220"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18220206" y="24974872"/>
+          <a:ext cx="204173" cy="2610"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>277210</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>9754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>281260</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>47126</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="222" name="直接连接符 221"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18313363" y="24994313"/>
+          <a:ext cx="4050" cy="208499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>201023</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>39018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>367204</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>39018</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="直接连接符 222"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18237176" y="25194704"/>
+          <a:ext cx="166181" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>443013</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>164964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>207928</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>120380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="流程图: 联系 223"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17826138" y="24510864"/>
+          <a:ext cx="450715" cy="298316"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214817</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>170233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>664722</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>125649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="流程图: 联系 224"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16208711" y="24343467"/>
+          <a:ext cx="449905" cy="295884"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>264795</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>133755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>269120</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="直接连接符 225"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15573699" y="23626053"/>
+          <a:ext cx="4325" cy="422667"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>77011</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>89170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>462063</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>133755</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="流程图: 联系 231"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15385915" y="24262404"/>
+          <a:ext cx="385052" cy="214819"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1442126" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="TextBox 234"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049375" y="24726900"/>
+          <a:ext cx="1442126" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控制断开吗？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595741" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="TextBox 235"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16973550" y="24384000"/>
+          <a:ext cx="595741" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控制</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>4509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>117137</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="直接箭头连接符 237"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="236" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16668750" y="24521859"/>
+          <a:ext cx="304800" cy="112628"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>186166</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>4509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>443013</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>142672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="240" name="直接箭头连接符 239"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="236" idx="3"/>
+          <a:endCxn id="224" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17569291" y="24521859"/>
+          <a:ext cx="256847" cy="138163"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>25738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>77011</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="243" name="直接箭头连接符 242"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="232" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15097125" y="24543088"/>
+          <a:ext cx="305611" cy="164762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1115,15 +6874,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="J123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q132" sqref="Q132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="21" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1330,6 +7090,28 @@
         <v>39</v>
       </c>
     </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B134" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B137" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -270,6 +270,271 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="矩形 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13620749" y="21336000"/>
+          <a:ext cx="9344025" cy="4257675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="矩形 254"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058151" y="25841324"/>
+          <a:ext cx="15182850" cy="17287876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>s</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>494209</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>161208</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="239" name="组合 238"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8353425" y="31670625"/>
+          <a:ext cx="8838109" cy="6038133"/>
+          <a:chOff x="8810625" y="31670625"/>
+          <a:chExt cx="8838109" cy="6038133"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="234" name="TextBox 233"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8810625" y="31670625"/>
+            <a:ext cx="2802114" cy="544893"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>×</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 方案</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Low Power Comparator</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="237" name="图片 236"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8915400" y="31965900"/>
+            <a:ext cx="8733334" cy="5742858"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -286,44 +551,6 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="323850" y="171450"/>
-          <a:ext cx="7104762" cy="638095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>122959</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114264</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -336,8 +563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="857250"/>
-          <a:ext cx="6933334" cy="285714"/>
+          <a:off x="323850" y="171450"/>
+          <a:ext cx="7104762" cy="638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -348,20 +575,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122959</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>351524</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161860</xdr:rowOff>
+      <xdr:rowOff>114264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -374,8 +601,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="1181100"/>
-          <a:ext cx="7209524" cy="523810"/>
+          <a:off x="419100" y="857250"/>
+          <a:ext cx="6933334" cy="285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -387,19 +614,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>532391</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1152</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>351524</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -412,8 +639,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="1714500"/>
-          <a:ext cx="8076191" cy="514286"/>
+          <a:off x="361950" y="1181100"/>
+          <a:ext cx="7209524" cy="523810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -425,19 +652,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>618105</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1149</xdr:rowOff>
+      <xdr:colOff>532391</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1152</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -450,8 +677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="2209800"/>
-          <a:ext cx="8161905" cy="533333"/>
+          <a:off x="266700" y="1714500"/>
+          <a:ext cx="8076191" cy="514286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,20 +689,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618105</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>94296</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1173</xdr:rowOff>
+      <xdr:rowOff>1149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -488,8 +715,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="2743200"/>
-          <a:ext cx="7638096" cy="342857"/>
+          <a:off x="314325" y="2209800"/>
+          <a:ext cx="8161905" cy="533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -500,20 +727,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>218359</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>37647</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>94296</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -526,8 +753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="6010275"/>
-          <a:ext cx="5733334" cy="3628572"/>
+          <a:off x="371475" y="2743200"/>
+          <a:ext cx="7638096" cy="342857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,20 +765,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>46874</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9420</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218359</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>37647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -564,8 +791,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619875" y="6886575"/>
-          <a:ext cx="6009524" cy="838095"/>
+          <a:off x="209550" y="6010275"/>
+          <a:ext cx="5733334" cy="3628572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,20 +803,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>580311</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>94782</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46874</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -602,8 +829,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="10410825"/>
-          <a:ext cx="5714286" cy="3742857"/>
+          <a:off x="6619875" y="6886575"/>
+          <a:ext cx="6009524" cy="838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,19 +842,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542229</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>47178</xdr:rowOff>
+      <xdr:colOff>580311</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>94782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -640,8 +867,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="14811375"/>
-          <a:ext cx="5571429" cy="3580953"/>
+          <a:off x="590550" y="10410825"/>
+          <a:ext cx="5714286" cy="3742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,20 +879,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>656305</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>161892</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542229</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>47178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -678,8 +905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="15325725"/>
-          <a:ext cx="7361905" cy="266667"/>
+          <a:off x="695325" y="14811375"/>
+          <a:ext cx="5571429" cy="3580953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -691,19 +918,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>522953</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>38052</xdr:rowOff>
+      <xdr:colOff>656305</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161892</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -716,8 +943,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6410325" y="8058150"/>
-          <a:ext cx="7380953" cy="380952"/>
+          <a:off x="6562725" y="15325725"/>
+          <a:ext cx="7361905" cy="266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,19 +956,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>27655</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1177</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>522953</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -754,8 +981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619875" y="10829925"/>
-          <a:ext cx="7361905" cy="314286"/>
+          <a:off x="6410325" y="8058150"/>
+          <a:ext cx="7380953" cy="380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,20 +993,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>484849</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>19010</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>27655</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -792,8 +1019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="19240500"/>
-          <a:ext cx="7409524" cy="323810"/>
+          <a:off x="6619875" y="10829925"/>
+          <a:ext cx="7361905" cy="314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,20 +1031,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>103828</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>133163</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484849</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>19010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPr id="15" name="图片 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -830,6 +1057,44 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="171450" y="19240500"/>
+          <a:ext cx="7409524" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103828</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>133163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="304800" y="20583525"/>
           <a:ext cx="7580953" cy="1495238"/>
         </a:xfrm>
@@ -943,10 +1208,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
             <a:t>☆  三种方式动态切换可行性</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
         </a:p>
         <a:p>
           <a:r>
@@ -6584,6 +6849,1517 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85722</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400047</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="燕尾形箭头 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9739310" y="25293637"/>
+          <a:ext cx="685800" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>227802</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>113703</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="组合 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8439149" y="25927050"/>
+          <a:ext cx="6428578" cy="5047653"/>
+          <a:chOff x="8439149" y="25927050"/>
+          <a:chExt cx="6428578" cy="5047653"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="TextBox 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8439149" y="25927050"/>
+            <a:ext cx="3457575" cy="447943"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>× </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>方案</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Power</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Supply supervisor </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>电源监控模块</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="图片 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8486774" y="26193750"/>
+            <a:ext cx="6380953" cy="4780953"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>294223</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>170898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14744700" y="26269950"/>
+          <a:ext cx="8419048" cy="4419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矩形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15668625" y="27108150"/>
+          <a:ext cx="447675" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="直接箭头连接符 226"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15687675" y="26727150"/>
+          <a:ext cx="204788" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="725391" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="TextBox 227"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15363825" y="26527125"/>
+          <a:ext cx="725391" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0.1V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>滞后</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="矩形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8715375" y="28832175"/>
+          <a:ext cx="447675" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直接箭头连接符 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8924925" y="30251400"/>
+          <a:ext cx="1" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1877437" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="TextBox 232"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934325" y="30746700"/>
+          <a:ext cx="1877437" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>只能从这四个电压值中选择</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="圆角矩形 240"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="32099250"/>
+          <a:ext cx="1847850" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="244" name="直接箭头连接符 243"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="241" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610975" y="32308800"/>
+          <a:ext cx="447675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2057166" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="TextBox 246"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12049125" y="32146875"/>
+          <a:ext cx="2057166" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选择一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>管脚连接到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="矩形 247"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14573250" y="34089976"/>
+          <a:ext cx="561975" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直接箭头连接符 139"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15163800" y="36052125"/>
+          <a:ext cx="447675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>319318</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>54743</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1990032" cy="642484"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="TextBox 142"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15645043" y="35716343"/>
+          <a:ext cx="1990032" cy="642484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和自己比较？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>本来就是要检测的目标，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>再对比有何用？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>313251</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>28016</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="250" name="组合 249"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8401050" y="38138100"/>
+          <a:ext cx="8609526" cy="4752416"/>
+          <a:chOff x="8401050" y="38138100"/>
+          <a:chExt cx="8609526" cy="4752416"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="TextBox 143"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8401050" y="38138100"/>
+            <a:ext cx="2802114" cy="544893"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>☆ 方案</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>：</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ADC</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="249" name="图片 248"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8410575" y="38414325"/>
+            <a:ext cx="8600001" cy="4476191"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="矩形 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391525" y="40319325"/>
+          <a:ext cx="561975" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="TextBox 250"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="41900475"/>
+          <a:ext cx="748923" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>任选一路</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="矩形 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16230600" y="40405050"/>
+          <a:ext cx="561975" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="直接箭头连接符 151"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16811625" y="40557450"/>
+          <a:ext cx="447675" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="TextBox 154"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17268825" y="40471725"/>
+          <a:ext cx="1454244" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>接高精度参考电源</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>输入电压的最高值？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1313180" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="25355550"/>
+          <a:ext cx="1313180" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>电压检测方案探讨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="875030" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="TextBox 158"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12715875" y="23040975"/>
+          <a:ext cx="875030" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>电源切换示意图</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6874,10 +8650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q132" sqref="Q132"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7122,6 +8899,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7135,6 +8913,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="电源方案选择" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="硬件模块化探讨" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>一、相关引脚介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,12 +185,119 @@
     <t>△ 这三种方式，如果可以通过两个I/O口控制会更好。到时候可以动态切换。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>四、电源草案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用三种输入方式动态切换。ADC采样电池电量，决定使用哪一种方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□ 在开发板上测试切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□ 默认状态是哪种？或者寻找可以记住状态的开关？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、热拔插方案探讨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC检测模块的分压电阻。示意图如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 热拔插，自动侦测设备状态。是否有设备插入或拔出。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">○ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传感器模块上不希望使用MCU。如果能使用MCU，还不如直接集成到一块板子上。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 自动识别传感器类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Wire总线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +321,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,13 +384,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8354,6 +8499,3478 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
             <a:t>电源切换示意图</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="1466850"/>
+          <a:ext cx="1266825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nRF51822</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>核心板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="2867025"/>
+          <a:ext cx="1266825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>传感器模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="2867025"/>
+          <a:ext cx="1266825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>传感器模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="2867025"/>
+          <a:ext cx="1266825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>传感器模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26789</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接连接符 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1762126" y="2091930"/>
+          <a:ext cx="5306615" cy="6547"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128590</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="组合 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2943226" y="2075986"/>
+          <a:ext cx="76200" cy="795804"/>
+          <a:chOff x="2942035" y="2090163"/>
+          <a:chExt cx="75010" cy="800675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="矩形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2942035" y="2396727"/>
+            <a:ext cx="75010" cy="259556"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直接连接符 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2980136" y="2090163"/>
+            <a:ext cx="520" cy="306569"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="18" name="直接连接符 17"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2982515" y="2613422"/>
+            <a:ext cx="2380" cy="277416"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="332783" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2988470" y="2393156"/>
+          <a:ext cx="332783" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>R1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>291704</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="335605" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4649392" y="2393156"/>
+          <a:ext cx="335605" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>R2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600685</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="339837" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334735" y="2377678"/>
+          <a:ext cx="339837" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>Rn</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650881</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29768</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接连接符 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7049052" y="1797228"/>
+          <a:ext cx="1" cy="282057"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525109</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6923281" y="1383997"/>
+          <a:ext cx="242640" cy="4"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>432116</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143282</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="445956" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6830288" y="1168041"/>
+          <a:ext cx="445956" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>VDD</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565547</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1500188" y="1774031"/>
+          <a:ext cx="261938" cy="648891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ADC</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>229298</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307356</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128590</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="组合 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4591748" y="2075986"/>
+          <a:ext cx="78058" cy="795804"/>
+          <a:chOff x="2942035" y="2090163"/>
+          <a:chExt cx="75010" cy="800675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="矩形 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2942035" y="2396727"/>
+            <a:ext cx="75010" cy="259556"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="直接连接符 52"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2980136" y="2090163"/>
+            <a:ext cx="520" cy="306569"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="直接连接符 53"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2982515" y="2613422"/>
+            <a:ext cx="2380" cy="277416"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549896</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>627954</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133236</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="组合 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6283946" y="2080632"/>
+          <a:ext cx="78058" cy="795804"/>
+          <a:chOff x="2942035" y="2090163"/>
+          <a:chExt cx="75010" cy="800675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="矩形 55"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2942035" y="2396727"/>
+            <a:ext cx="75010" cy="259556"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="直接连接符 56"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2980136" y="2090163"/>
+            <a:ext cx="520" cy="306569"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="直接连接符 57"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2982515" y="2613422"/>
+            <a:ext cx="2380" cy="277416"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>604346</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>24606</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="组合 58"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7024196" y="1384738"/>
+          <a:ext cx="88023" cy="525818"/>
+          <a:chOff x="2942035" y="2090163"/>
+          <a:chExt cx="75010" cy="800675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="矩形 59"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2942035" y="2396727"/>
+            <a:ext cx="75010" cy="259556"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="61" name="直接连接符 60"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2980136" y="2090163"/>
+            <a:ext cx="520" cy="306569"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="62" name="直接连接符 61"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2982515" y="2613422"/>
+            <a:ext cx="2380" cy="277416"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="335605" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7081345" y="1537138"/>
+          <a:ext cx="335605" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>R0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10620728" cy="2990849"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="TextBox 63"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="438150" y="4305300"/>
+              <a:ext cx="10620728" cy="2990849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>每个设备的分压电阻不同，这样，当插入</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>拔出不同设备后，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>ADC</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>采样的电压值就不一样，从而可以识别出插入的何种类型的设备。也就是说设备</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>ID</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>可以用分压电阻决定。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>△ 当设备启动时，就有设备连接，此时如何确保正确识别？</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>○当有一个设备连接时：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>        </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>确保每个分压电阻值不同，就可以分辨出不同的设备，</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>          </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>即：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Rn</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> ≠ R1 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≠ R2 ... ≠ Rn-1  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>n</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>为最大可插入设备数</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>○当有</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>两个</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>设备连接时：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>          在第一步的前提下，需确保任意两个设备并联出的电阻值不会与某个设备的电阻值相等；并且也不与其他任意两个的并联电阻值相等。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>           </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>即：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Rn </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹𝒊</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>∗</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹𝒋</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹𝒊</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹𝒋</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹𝒊</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>∗</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹𝒋</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹𝒊</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹𝒋</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ≠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝒎</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>∗</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝒏</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝒎</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑹</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝒏</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>※</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>再往后推演，条件越来越复杂苛刻。感觉这种计算方法不太合适。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>      </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>所以可以考虑将</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>R0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>设计成动态电阻，更改几次</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>R0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>的阻值，应该就可以计算出设备的连接情况。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>     </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>○ 引入可变电阻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>R0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>的计算方法：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>           </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>待完善</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>      </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="TextBox 63"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="438150" y="4305300"/>
+              <a:ext cx="10620728" cy="2990849"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>每个设备的分压电阻不同，这样，当插入</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>拔出不同设备后，</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>ADC</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>采样的电压值就不一样，从而可以识别出插入的何种类型的设备。也就是说设备</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>ID</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>可以用分压电阻决定。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>△ 当设备启动时，就有设备连接，此时如何确保正确识别？</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>○当有一个设备连接时：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>        </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>确保每个分压电阻值不同，就可以分辨出不同的设备，</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>          </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>即：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Rn</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> ≠ R1 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≠ R2 ... ≠ Rn-1  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>n</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>为最大可插入设备数</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>○当有</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>两个</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>设备连接时：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>          在第一步的前提下，需确保任意两个设备并联出的电阻值不会与某个设备的电阻值相等；并且也不与其他任意两个的并联电阻值相等。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>           </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>即：</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Rn </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑹𝒊∗𝑹𝒋)/(𝑹𝒊+𝑹𝒋)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑹𝒊∗𝑹𝒋)/(𝑹𝒊+𝑹𝒋)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ≠</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑹</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗𝑹</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/(𝑹</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+𝑹</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝒏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>※</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>再往后推演，条件越来越复杂苛刻。感觉这种计算方法不太合适。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>      </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>所以可以考虑将</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>R0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>设计成动态电阻，更改几次</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>R0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>的阻值，应该就可以计算出设备的连接情况。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>     </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>○ 引入可变电阻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>R0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>的计算方法：</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>           </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>待完善</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>      </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="椭圆 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="1504950"/>
+          <a:ext cx="638175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1031051" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="1476375"/>
+          <a:ext cx="1031051" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>动态可调电阻</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8651,10 +12268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8889,6 +12506,26 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
+    <row r="255" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B256" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B257" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B258" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8900,14 +12537,72 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>一、相关引脚介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>□ 在开发板上测试切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>□ 默认状态是哪种？或者寻找可以记住状态的开关？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,15 +202,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二、热拔插方案探讨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>☆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC检测模块的分压电阻。示意图如下：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,7 +277,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-Wire总线</t>
+    <t>二、拔插检测方案探讨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Wire总线方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC检测模块的分压电阻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□ 在开发板上测试切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□ 计算功耗，如果功耗大，是否可以考虑预留直流电源接口（不使用电池）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +349,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -384,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -399,6 +410,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9896,8 +9908,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10620728" cy="2990849"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -10411,7 +10423,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10424,7 +10436,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10436,7 +10448,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10448,7 +10460,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10462,7 +10474,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10474,7 +10486,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10486,7 +10498,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10554,7 +10566,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -10567,11 +10579,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝑹</m:t>
+                        <m:t>𝑹𝒎</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
@@ -10583,31 +10595,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝒎</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
                         <m:t>∗</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑹</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
@@ -10619,7 +10607,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝒏</m:t>
+                        <m:t>𝑹𝒏</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -10629,11 +10617,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝑹</m:t>
+                        <m:t>𝑹𝒎</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
@@ -10645,31 +10633,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝒎</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
                         <m:t>+</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑹</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
@@ -10681,7 +10645,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝒏</m:t>
+                        <m:t>𝑹𝒏</m:t>
                       </m:r>
                     </m:den>
                   </m:f>
@@ -10979,7 +10943,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -11977,6 +11941,1366 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="8658225"/>
+          <a:ext cx="1266825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nRF51822</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>核心板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343151" y="8658224"/>
+          <a:ext cx="771524" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1-Wire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Master</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="左右箭头 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="9096375"/>
+          <a:ext cx="647700" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="451983" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="8753475"/>
+          <a:ext cx="451983" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>I2C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>1360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>17009</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2731634" y="9869940"/>
+          <a:ext cx="2722" cy="525917"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>410936</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2715986" y="10465253"/>
+          <a:ext cx="6408964" cy="12247"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="11049000"/>
+          <a:ext cx="1266825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>传感器模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="11049000"/>
+          <a:ext cx="1266825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>传感器模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="矩形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="11049000"/>
+          <a:ext cx="1266825" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>传感器模块</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接连接符 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="10448925"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接连接符 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="10458450"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接连接符 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="10477500"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="11153776"/>
+          <a:ext cx="809625" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1-Wire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EEPROM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矩形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="11163300"/>
+          <a:ext cx="809625" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1-Wire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EEPROM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="矩形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="11182350"/>
+          <a:ext cx="809625" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1-Wire</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EEPROM</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="圆角矩形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="11096625"/>
+          <a:ext cx="1076325" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>108134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8505825" y="11080934"/>
+          <a:ext cx="485775" cy="310966"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3086101" cy="825867"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="10668000"/>
+          <a:ext cx="3086101" cy="825867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>保存如下信息：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    ●  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>采集的数据类型：比如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>PM2.5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>温度等</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>●  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通信地址信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>●  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>额外的配置信息，比如多久采集一次数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5918351" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="12544425"/>
+          <a:ext cx="5918351" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>插入检测方法：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>    基本上依靠</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1-wire</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>presence-detect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>机制来检测设备插入。可以设定每隔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1~2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>分钟检测一次。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12268,10 +13592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K258"/>
+  <dimension ref="A1:K259"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B258" sqref="B258"/>
+    <sheetView topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12518,12 +13842,17 @@
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B257" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B258" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B259" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -12539,8 +13868,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12551,53 +13880,56 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
+      <c r="B8" s="11" t="s">
+        <v>53</v>
       </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I15" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>54</v>
+      <c r="B48" s="11" t="s">
+        <v>52</v>
       </c>
+      <c r="C48" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="电源方案选择" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>一、相关引脚介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,10 @@
     <t>□ 计算功耗，如果功耗大，是否可以考虑预留直流电源接口（不使用电池）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>□ 考虑IO电平。当VDD低于1.9V时，IO口最大才输出1.9+0.3=2.2V，正好是TTL电平的阀值。是否需要使用1.8V的器件？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8517,6 +8521,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>684879</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>104704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="44624625"/>
+          <a:ext cx="7371429" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13592,10 +13634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K259"/>
+  <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13855,6 +13897,11 @@
         <v>55</v>
       </c>
     </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B260" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13868,7 +13915,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>一、相关引脚介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,12 +300,28 @@
     <t>□ 考虑IO电平。当VDD低于1.9V时，IO口最大才输出1.9+0.3=2.2V，正好是TTL电平的阀值。是否需要使用1.8V的器件？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>由于考虑到功耗和使用时间，电源准备使用可充电电池，输出为3~4.2V。使用DC/DC输入方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图中电感电容计算：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +376,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +420,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -399,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -408,13 +448,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8559,6 +8605,669 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="直接连接符 229"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="43776900"/>
+          <a:ext cx="8143875" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="直接连接符 159"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="0" y="43776900"/>
+          <a:ext cx="8448675" cy="1609725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>618328</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>66078</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="161" name="组合 160"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7458075" y="46110525"/>
+          <a:ext cx="6428578" cy="5047653"/>
+          <a:chOff x="8439149" y="25927050"/>
+          <a:chExt cx="6428578" cy="5047653"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="162" name="TextBox 161"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8439149" y="25927050"/>
+            <a:ext cx="3457575" cy="447943"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>锂电池电压监控  利用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RF1822  power supervisor</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="163" name="图片 162"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8486774" y="26193750"/>
+            <a:ext cx="6380953" cy="4780953"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104059</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>151947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="图片 163"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="46243875"/>
+          <a:ext cx="5733334" cy="3628572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="椭圆 241"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409825" y="48520351"/>
+          <a:ext cx="685800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="椭圆 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="48825151"/>
+          <a:ext cx="685800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="椭圆 166"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="48825151"/>
+          <a:ext cx="685800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="椭圆 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="48853726"/>
+          <a:ext cx="685800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="椭圆 173"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="49072801"/>
+          <a:ext cx="685800" cy="1362074"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="174" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934325" y="50434875"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1257300" cy="998094"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="50892075"/>
+          <a:ext cx="1257300" cy="998094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TODO:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据电源输入情况，选择一个合适的电压监控阀值</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13634,10 +14343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K260"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" topLeftCell="B262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13872,35 +14581,195 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="255" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B256" t="s">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A256" s="11"/>
+      <c r="B256" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="11"/>
+      <c r="L256" s="11"/>
+      <c r="M256" s="11"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B257" s="8" t="s">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A257" s="11"/>
+      <c r="B257" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="11"/>
+      <c r="M257" s="11"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B258" s="8" t="s">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A258" s="11"/>
+      <c r="B258" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="11"/>
+      <c r="M258" s="11"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B259" s="12" t="s">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A259" s="11"/>
+      <c r="B259" s="13" t="s">
         <v>55</v>
       </c>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
+      <c r="L259" s="11"/>
+      <c r="M259" s="11"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B260" s="12" t="s">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A260" s="11"/>
+      <c r="B260" s="13" t="s">
         <v>56</v>
       </c>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="11"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11"/>
+      <c r="L260" s="11"/>
+      <c r="M260" s="11"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A261" s="11"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
+      <c r="L261" s="11"/>
+      <c r="M261" s="11"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A262" s="11"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="11"/>
+      <c r="M262" s="11"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A263" s="11"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+      <c r="M263" s="11"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A264" s="11"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="11"/>
+      <c r="M264" s="11"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A265" s="11"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="11"/>
+      <c r="M265" s="11"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A267" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5"/>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B293" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D293" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13931,12 +14800,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13951,32 +14820,32 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="11"/>
+      <c r="C48" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>一、相关引脚介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,47 @@
     <t>TODO:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15nH+10uH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C AVDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C DEC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C DEC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47nF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐选择2.7V。
+如果使用锂电池供电，3.0--4.2V的锂电电压通过LDO降压为3.3V，压差最小为0.2V。假设设定锂电池最低输出电压为2.9V，则LDO输出为2.7V，此时锂电的最低放电电压已接近极限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手册中并没有相关的计算，故推荐采用官方推荐值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -439,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -460,6 +501,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14343,10 +14387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:U308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E299" sqref="E299"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14771,7 +14815,93 @@
       </c>
       <c r="D293" s="15"/>
     </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C294" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C295" t="s">
+        <v>61</v>
+      </c>
+      <c r="D295" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C296" t="s">
+        <v>63</v>
+      </c>
+      <c r="D296" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C297" t="s">
+        <v>64</v>
+      </c>
+      <c r="D297" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C298" t="s">
+        <v>65</v>
+      </c>
+      <c r="D298" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="305" spans="13:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M305" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N305" s="17"/>
+      <c r="O305" s="17"/>
+      <c r="P305" s="17"/>
+      <c r="Q305" s="17"/>
+      <c r="R305" s="17"/>
+      <c r="S305" s="17"/>
+      <c r="T305" s="17"/>
+      <c r="U305" s="17"/>
+    </row>
+    <row r="306" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="M306" s="17"/>
+      <c r="N306" s="17"/>
+      <c r="O306" s="17"/>
+      <c r="P306" s="17"/>
+      <c r="Q306" s="17"/>
+      <c r="R306" s="17"/>
+      <c r="S306" s="17"/>
+      <c r="T306" s="17"/>
+      <c r="U306" s="17"/>
+    </row>
+    <row r="307" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="M307" s="17"/>
+      <c r="N307" s="17"/>
+      <c r="O307" s="17"/>
+      <c r="P307" s="17"/>
+      <c r="Q307" s="17"/>
+      <c r="R307" s="17"/>
+      <c r="S307" s="17"/>
+      <c r="T307" s="17"/>
+      <c r="U307" s="17"/>
+    </row>
+    <row r="308" spans="13:21" x14ac:dyDescent="0.15">
+      <c r="M308" s="17"/>
+      <c r="N308" s="17"/>
+      <c r="O308" s="17"/>
+      <c r="P308" s="17"/>
+      <c r="Q308" s="17"/>
+      <c r="R308" s="17"/>
+      <c r="S308" s="17"/>
+      <c r="T308" s="17"/>
+      <c r="U308" s="17"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M305:U308"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -14784,7 +14914,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="电源方案选择" sheetId="1" r:id="rId1"/>
     <sheet name="硬件模块化探讨" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="关于用户升级的考虑" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -14345,7 +14345,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B262" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B262" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
@@ -14859,7 +14859,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="电源方案选择" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>一、相关引脚介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,18 @@
     <t>TODO:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>三、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用单总线的形式，每个Sensor Board都添加一个EEPROM用来标示自己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -10658,9 +10670,9 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10620728" cy="2990849"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="10620728" cy="3324225"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -10669,7 +10681,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="438150" y="4305300"/>
-              <a:ext cx="10620728" cy="2990849"/>
+              <a:ext cx="10620728" cy="3324225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11505,7 +11517,7 @@
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>所以可以考虑将</a:t>
@@ -11513,7 +11525,7 @@
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>R0</a:t>
@@ -11521,7 +11533,7 @@
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>设计成动态电阻，更改几次</a:t>
@@ -11529,7 +11541,7 @@
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>R0</a:t>
@@ -11537,14 +11549,14 @@
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>的阻值，应该就可以计算出设备的连接情况。</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -11670,9 +11682,60 @@
                 </a:rPr>
                 <a:t>      </a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>△ 当电源电压较低时，对</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ADC</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>采样会有较大影响，此时，严重影响识别率。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -11694,7 +11757,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -11703,7 +11766,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="438150" y="4305300"/>
-              <a:ext cx="10620728" cy="2990849"/>
+              <a:ext cx="10620728" cy="3324225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12121,7 +12184,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -12181,107 +12244,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(𝑹</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝒎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∗𝑹</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝒏</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/(𝑹</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝒎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+𝑹</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝒏</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                <a:t>(𝑹𝒎∗𝑹𝒏)/(𝑹𝒎+𝑹𝒏)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
@@ -12386,7 +12353,7 @@
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>所以可以考虑将</a:t>
@@ -12394,7 +12361,7 @@
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>R0</a:t>
@@ -12402,7 +12369,7 @@
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>设计成动态电阻，更改几次</a:t>
@@ -12410,7 +12377,7 @@
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>R0</a:t>
@@ -12418,14 +12385,14 @@
               <a:r>
                 <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:srgbClr val="0070C0"/>
                   </a:solidFill>
                 </a:rPr>
                 <a:t>的阻值，应该就可以计算出设备的连接情况。</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -12551,9 +12518,60 @@
                 </a:rPr>
                 <a:t>      </a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>    </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>△ 当电源电压较低时，对</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>ADC</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>采样会有较大影响，此时，严重影响识别率。</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:endParaRPr>
             </a:p>
@@ -13967,9 +13985,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5918351" cy="459100"/>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8162925" cy="2066926"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="TextBox 44"/>
@@ -13977,8 +13995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="12544425"/>
-          <a:ext cx="5918351" cy="459100"/>
+          <a:off x="676275" y="12544424"/>
+          <a:ext cx="8162925" cy="2066926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14007,14 +14025,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>插入检测方法：</a:t>
+            <a:t>拔插检测方法：</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -14047,6 +14065,42 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>分钟检测一次。</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>虽然存在一定时间的延迟，但其优点，可靠性强和传递的信息多</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ADC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>方案比较</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14782,10 +14836,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14794,32 +14848,32 @@
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
@@ -14828,9 +14882,15 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I15" s="9" t="s">
         <v>48</v>
       </c>
@@ -14838,7 +14898,7 @@
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>46</v>
       </c>
@@ -14846,11 +14906,42 @@
         <v>52</v>
       </c>
       <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="89" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B90" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14859,7 +14950,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="电源方案选择" sheetId="1" r:id="rId1"/>
     <sheet name="硬件模块化探讨" sheetId="2" r:id="rId2"/>
-    <sheet name="关于用户升级的考虑" sheetId="3" r:id="rId3"/>
+    <sheet name="增加USB功能的探讨" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -10671,8 +10671,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10620728" cy="3324225"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -11757,7 +11757,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="64" name="TextBox 63"/>
@@ -14838,7 +14838,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
@@ -14947,14 +14947,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/design/nRF51822硬件设计相关分析.xlsx
+++ b/Doc/design/nRF51822硬件设计相关分析.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="电源方案选择" sheetId="1" r:id="rId1"/>
     <sheet name="硬件模块化探讨" sheetId="2" r:id="rId2"/>
-    <sheet name="增加USB功能的探讨" sheetId="4" r:id="rId3"/>
+    <sheet name="系统功耗探讨" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -14949,9 +14949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
